--- a/2gis.xlsx
+++ b/2gis.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -390,82 +390,637 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="30.109375" customWidth="1" min="1" max="1"/>
+    <col width="30.6640625" customWidth="1" min="2" max="2"/>
+    <col width="19.77734375" customWidth="1" min="3" max="3"/>
+    <col width="27.109375" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Aquanet</t>
+          <t>Дункан</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>aquanet.ru</t>
+          <t>dunkan-smolensk.ru</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>info@aquanet.ru</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>tel:88007000262</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>tel:+74959806262,,,382</t>
+          <t>tel:+79002204455</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>Дункан</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>obi.ru</t>
+          <t>dunkan-smolensk.ru</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>info@obi.ru</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>tel:88005008080</t>
+          <t>tel:+74812567333</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Termokit</t>
+          <t>Дункан</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>termokit.ru</t>
+          <t>dunkan-smolensk.ru</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>info@termokit.ru</t>
+          <t>tel:+79002206576</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tel:+74951353333</t>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tel:+79002204728</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>СПО Аналитприбор</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tel:+74812311168</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Вода и Тепло</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vodaiteplo67.ru</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tel:+79036490123</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lunda</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>www.lunda.ru</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tel:+74812339980</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ГлавТепло</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>www.glavteplo67.ru</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>tel:+74812304900</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gas Company</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>gascompany67.ru</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>tel:+74812568264</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Газсервис</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>tel:+74812556049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tel:+74812450200</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gas Company</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>gascompany67.ru</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>tel:+74812568264</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tel:88002003600</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tel:88002003600</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Вода и Тепло</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>vodaiteplo67.ru</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>tel:+79036490123</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GazМаркет67</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>tel:+79206662663</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>КПД</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>tel:+74812660494</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gas Company</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>gascompany67.ru</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>tel:+74812568264</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Орхидея Рус</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>tel:+74812240086</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ГазоАналит</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>gazoanalit.ru</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>tel:+74812600655</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>МастерДом</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>tel:+74812414376</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Газсервис</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>tel:+74812440553</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>СмолТехГаз+</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>tel:+74812214720</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Веском</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tel:+74812418551</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Логос</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Магазин запчастей для газовых котлов</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Тепло67</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tel:+74812542141</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>СмолТехМонтаж</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>www.ctm-smol.ru</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>tel:88002007481</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Гарант</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>tel:+74812688847</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ГазСервис</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>www.gas-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>gazoraspredelenie.gazprom.ru</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>tel:+74816741138</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>tel:+74951510165</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Газ сервис</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>www.gas-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>gazoraspredelenie.gazprom.ru</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>tel:+74814941321</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Газсервис, сеть магазинов, ОАО Газпром газораспределение Смоленск</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>tel:+74814374650</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Газпром газораспределение Смоленска</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>www.gas-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>gazoraspredelenie.gazprom.ru</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>tel:+74814542538</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>tel:+74951510165</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Газсервис</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>tel:+74814742264</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ТеплоТехникаСервис</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>teplo-tula.ru</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>tel:+74814241231</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Газпром</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>tel:+74951510165</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Технические газы</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>vyazma-gas.ru</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>tel:+79517162997</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Монтажник</t>
         </is>
       </c>
     </row>

--- a/2gis.xlsx
+++ b/2gis.xlsx
@@ -1,41 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Проекты\KWORK и выполненые задания\1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -334,22 +385,1051 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col width="30.109375" customWidth="1" min="1" max="1"/>
+    <col width="30.6640625" customWidth="1" min="2" max="2"/>
+    <col width="19.77734375" customWidth="1" min="3" max="3"/>
+    <col width="27.109375" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tel:+79002204455</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tel:+74812567333</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tel:+79002206576</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tel:+79002204728</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ГлавТепло</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>www.glavteplo67.ru</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tel:+74812304900</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gas Company</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gascompany67.ru</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tel:+74812568264</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>СПО Аналитприбор</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tel:+74812311168</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lunda</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>www.lunda.ru</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>tel:+74812339980</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Газсервис</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>tel:+74812556049</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gas Company</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>gascompany67.ru</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tel:+74812568264</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Вода и Тепло</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>vodaiteplo67.ru</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tel:+79036490123</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>tel:+74812450200</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tel:88002003600</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tel:88002003600</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GazМаркет67</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>tel:+79206662663</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Вода и Тепло</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>vodaiteplo67.ru</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>tel:+79036490123</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>СмолТехГаз+</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>tel:+74812214720</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>КПД</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>tel:+74812660494</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gas Company</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>gascompany67.ru</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>tel:+74812568264</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Орхидея Рус</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>tel:+74812240086</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ГазоАналит</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>gazoanalit.ru</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>tel:+74812600655</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>МастерДом</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>tel:+74812414376</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Газсервис</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>tel:+74812440553</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Веском</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tel:+74812418551</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Логос</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Магазин запчастей для газовых котлов</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Тепло67</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tel:+74812542141</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>СмолТехМонтаж</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>www.ctm-smol.ru</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>tel:88002007481</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Гарант</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>tel:+74812688847</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ГазСервис</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>www.gas-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>gazoraspredelenie.gazprom.ru</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>tel:+74816741138</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Газ сервис</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>www.gas-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>gazoraspredelenie.gazprom.ru</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>tel:+74814941321</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Газсервис, сеть магазинов, ОАО Газпром газораспределение Смоленск</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>tel:+74814374650</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Газпром газораспределение Смоленска</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>www.gas-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>gazoraspredelenie.gazprom.ru</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>tel:+74814542538</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>tel:+74951510165</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Газсервис</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>tel:+74814742264</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ТеплоТехникаСервис</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>teplo-tula.ru</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>tel:+74814241231</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Газпром</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>tel:+74951510165</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Технические газы</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>vyazma-gas.ru</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>tel:+79517162997</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Монтажник</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>tel:+79002204455</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>tel:+74812567333</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>tel:+79002206576</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>tel:+79002204728</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ГлавТепло</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>www.glavteplo67.ru</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>tel:+74812304900</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Gas Company</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>gascompany67.ru</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>tel:+74812568264</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>СПО Аналитприбор</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>tel:+74812311168</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Lunda</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>www.lunda.ru</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>tel:+74812339980</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Газсервис</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tel:+74812556049</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gas Company</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>gascompany67.ru</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>tel:+74812568264</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Вода и Тепло</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>vodaiteplo67.ru</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>tel:+79036490123</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Дункан</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>dunkan-smolensk.ru</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>tel:+74812450200</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>tel:88002003600</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>tel:88002003600</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GazМаркет67</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>tel:+79206662663</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Вода и Тепло</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>vodaiteplo67.ru</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>tel:+79036490123</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>СмолТехГаз+</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>tel:+74812214720</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>КПД</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>tel:+74812660494</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Gas Company</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>gascompany67.ru</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>tel:+74812568264</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Орхидея Рус</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tel:+74812240086</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ГазоАналит</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gazoanalit.ru</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>tel:+74812600655</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>МастерДом</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>tel:+74812414376</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>tel:+74812351743</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Газсервис</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>tel:+74812440553</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Веском</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>tel:+74812418551</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Логос</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Магазин запчастей для газовых котлов</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>tel:+74812542131</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>